--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.0401298104445</v>
+        <v>150.9485707434048</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6158072994051</v>
+        <v>206.5344938719798</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.2910706028037</v>
+        <v>186.8231316498796</v>
       </c>
       <c r="AD2" t="n">
-        <v>102040.1298104445</v>
+        <v>150948.5707434048</v>
       </c>
       <c r="AE2" t="n">
-        <v>139615.8072994051</v>
+        <v>206534.4938719798</v>
       </c>
       <c r="AF2" t="n">
         <v>1.755303284469344e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.94675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>126291.0706028037</v>
+        <v>186823.1316498796</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5949843903941</v>
+        <v>149.2840266019024</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.3209367492338</v>
+        <v>204.2569911430726</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.8790789261968</v>
+        <v>184.7629905849234</v>
       </c>
       <c r="AD2" t="n">
-        <v>110594.9843903941</v>
+        <v>149284.0266019024</v>
       </c>
       <c r="AE2" t="n">
-        <v>151320.9367492338</v>
+        <v>204256.9911430725</v>
       </c>
       <c r="AF2" t="n">
         <v>1.890771207010732e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>136879.0789261968</v>
+        <v>184762.9905849234</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.8996687984511</v>
+        <v>174.9983938180287</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.6837723331502</v>
+        <v>239.4405228059759</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.1574614298278</v>
+        <v>216.5886553663273</v>
       </c>
       <c r="AD2" t="n">
-        <v>118899.6687984511</v>
+        <v>174998.3938180287</v>
       </c>
       <c r="AE2" t="n">
-        <v>162683.7723331502</v>
+        <v>239440.5228059759</v>
       </c>
       <c r="AF2" t="n">
         <v>2.20787455322576e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.85648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>147157.4614298278</v>
+        <v>216588.6553663273</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.1601755390315</v>
+        <v>156.5730261814252</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.3577679795013</v>
+        <v>214.230121935737</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.1032722285223</v>
+        <v>193.7842997721161</v>
       </c>
       <c r="AD2" t="n">
-        <v>109160.1755390315</v>
+        <v>156573.0261814252</v>
       </c>
       <c r="AE2" t="n">
-        <v>149357.7679795013</v>
+        <v>214230.121935737</v>
       </c>
       <c r="AF2" t="n">
         <v>2.118254499610815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.803240740740742</v>
       </c>
       <c r="AH2" t="n">
-        <v>135103.2722285223</v>
+        <v>193784.2997721161</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.0441796224528</v>
+        <v>194.4843189618107</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.2463807556308</v>
+        <v>266.1020252460307</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.0895331888395</v>
+        <v>240.7056214331654</v>
       </c>
       <c r="AD2" t="n">
-        <v>139044.1796224528</v>
+        <v>194484.3189618107</v>
       </c>
       <c r="AE2" t="n">
-        <v>190246.3807556308</v>
+        <v>266102.0252460307</v>
       </c>
       <c r="AF2" t="n">
         <v>2.217766340198033e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>172089.5331888395</v>
+        <v>240705.6214331654</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.8372147962482</v>
+        <v>149.6397752026311</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6523670769745</v>
+        <v>204.7437420731099</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.1788780086234</v>
+        <v>185.2032866893573</v>
       </c>
       <c r="AD2" t="n">
-        <v>110837.2147962482</v>
+        <v>149639.7752026311</v>
       </c>
       <c r="AE2" t="n">
-        <v>151652.3670769744</v>
+        <v>204743.7420731099</v>
       </c>
       <c r="AF2" t="n">
         <v>1.861572538380246e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>137178.8780086234</v>
+        <v>185203.2866893573</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0599460796689</v>
+        <v>214.3865746215675</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.3186384037035</v>
+        <v>293.3331694652481</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.7233157210313</v>
+        <v>265.3378634672603</v>
       </c>
       <c r="AD2" t="n">
-        <v>150059.9460796689</v>
+        <v>214386.5746215675</v>
       </c>
       <c r="AE2" t="n">
-        <v>205318.6384037035</v>
+        <v>293333.1694652481</v>
       </c>
       <c r="AF2" t="n">
         <v>2.183030241927947e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.76157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>185723.3157210313</v>
+        <v>265337.8634672603</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.6977208692529</v>
+        <v>157.5384545607323</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.0932612151362</v>
+        <v>215.5510636359984</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.7685710220197</v>
+        <v>194.9791726504582</v>
       </c>
       <c r="AD2" t="n">
-        <v>109697.7208692529</v>
+        <v>157538.4545607323</v>
       </c>
       <c r="AE2" t="n">
-        <v>150093.2612151362</v>
+        <v>215551.0636359983</v>
       </c>
       <c r="AF2" t="n">
         <v>2.005421745805191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH2" t="n">
-        <v>135768.5710220197</v>
+        <v>194979.1726504582</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0900789010759</v>
+        <v>148.6612862458715</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.6301027838909</v>
+        <v>203.404930314586</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.2541771849144</v>
+        <v>183.9922492460324</v>
       </c>
       <c r="AD2" t="n">
-        <v>110090.0789010759</v>
+        <v>148661.2862458715</v>
       </c>
       <c r="AE2" t="n">
-        <v>150630.1027838908</v>
+        <v>203404.930314586</v>
       </c>
       <c r="AF2" t="n">
         <v>1.94091364240677e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>136254.1771849144</v>
+        <v>183992.2492460324</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.6593551985985</v>
+        <v>150.439364663673</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.0948146768874</v>
+        <v>205.8377756491043</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.8198007849612</v>
+        <v>186.192907236345</v>
       </c>
       <c r="AD2" t="n">
-        <v>101659.3551985986</v>
+        <v>150439.364663673</v>
       </c>
       <c r="AE2" t="n">
-        <v>139094.8146768874</v>
+        <v>205837.7756491043</v>
       </c>
       <c r="AF2" t="n">
         <v>1.791029858872021e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.94675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>125819.8007849612</v>
+        <v>186192.907236345</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.3363889052384</v>
+        <v>156.9350988512681</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.5988708811306</v>
+        <v>214.7255257361346</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.3213646076102</v>
+        <v>194.2324229291075</v>
       </c>
       <c r="AD2" t="n">
-        <v>109336.3889052384</v>
+        <v>156935.0988512681</v>
       </c>
       <c r="AE2" t="n">
-        <v>149598.8708811306</v>
+        <v>214725.5257361346</v>
       </c>
       <c r="AF2" t="n">
         <v>2.077903415402829e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>135321.3646076102</v>
+        <v>194232.4229291075</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.7363705628763</v>
+        <v>165.6737175984053</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.4603404830271</v>
+        <v>226.6820894266121</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.9553536018918</v>
+        <v>205.0478689621122</v>
       </c>
       <c r="AD2" t="n">
-        <v>118736.3705628763</v>
+        <v>165673.7175984053</v>
       </c>
       <c r="AE2" t="n">
-        <v>162460.3404830271</v>
+        <v>226682.0894266121</v>
       </c>
       <c r="AF2" t="n">
         <v>2.179486808521126e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146955.3536018918</v>
+        <v>205047.8689621122</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8073733561025</v>
+        <v>184.5416926355303</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.2399308059983</v>
+        <v>252.4980852687047</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.4198391642194</v>
+        <v>228.4000223940214</v>
       </c>
       <c r="AD2" t="n">
-        <v>128807.3733561025</v>
+        <v>184541.6926355303</v>
       </c>
       <c r="AE2" t="n">
-        <v>176239.9308059983</v>
+        <v>252498.0852687047</v>
       </c>
       <c r="AF2" t="n">
         <v>2.220985238509195e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>159419.8391642194</v>
+        <v>228400.0223940214</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3138815208878</v>
+        <v>254.188285330694</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.0816517006768</v>
+        <v>347.791625984997</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4050870472213</v>
+        <v>314.5988813297055</v>
       </c>
       <c r="AD2" t="n">
-        <v>181313.8815208878</v>
+        <v>254188.285330694</v>
       </c>
       <c r="AE2" t="n">
-        <v>248081.6517006769</v>
+        <v>347791.625984997</v>
       </c>
       <c r="AF2" t="n">
         <v>2.076842700252572e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>224405.0870472213</v>
+        <v>314598.8813297055</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1259643606985</v>
+        <v>158.1266550952986</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.6792028529013</v>
+        <v>216.3558655569678</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.2985912122508</v>
+        <v>195.7071654056372</v>
       </c>
       <c r="AD2" t="n">
-        <v>110125.9643606985</v>
+        <v>158126.6550952986</v>
       </c>
       <c r="AE2" t="n">
-        <v>150679.2028529013</v>
+        <v>216355.8655569678</v>
       </c>
       <c r="AF2" t="n">
         <v>1.959953217202913e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>136298.5912122508</v>
+        <v>195707.1654056372</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.360804292036</v>
+        <v>150.0082828380541</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.6863241553923</v>
+        <v>205.2479504773049</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.4502960255173</v>
+        <v>185.6593741511171</v>
       </c>
       <c r="AD2" t="n">
-        <v>101360.804292036</v>
+        <v>150008.2828380541</v>
       </c>
       <c r="AE2" t="n">
-        <v>138686.3241553923</v>
+        <v>205247.9504773049</v>
       </c>
       <c r="AF2" t="n">
         <v>1.823572109858407e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.981481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>125450.2960255174</v>
+        <v>185659.3741511171</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.7301281414324</v>
+        <v>335.056491076544</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.5363610022383</v>
+        <v>458.4390727400784</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.7539433909063</v>
+        <v>414.6862910610442</v>
       </c>
       <c r="AD2" t="n">
-        <v>235730.1281414324</v>
+        <v>335056.491076544</v>
       </c>
       <c r="AE2" t="n">
-        <v>322536.3610022384</v>
+        <v>458439.0727400784</v>
       </c>
       <c r="AF2" t="n">
         <v>1.825013014625417e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>291753.9433909063</v>
+        <v>414686.2910610442</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.648398764911</v>
+        <v>165.7966182597786</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.3399735880093</v>
+        <v>226.8502475334976</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.8464743543984</v>
+        <v>205.1999782952879</v>
       </c>
       <c r="AD2" t="n">
-        <v>118648.398764911</v>
+        <v>165796.6182597786</v>
       </c>
       <c r="AE2" t="n">
-        <v>162339.9735880093</v>
+        <v>226850.2475334976</v>
       </c>
       <c r="AF2" t="n">
         <v>2.153496984600672e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.05787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>146846.4743543984</v>
+        <v>205199.9782952879</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.3355639427842</v>
+        <v>157.0088184619094</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.5977421311061</v>
+        <v>214.8263921596935</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.3203435839038</v>
+        <v>194.323662802769</v>
       </c>
       <c r="AD2" t="n">
-        <v>109335.5639427842</v>
+        <v>157008.8184619094</v>
       </c>
       <c r="AE2" t="n">
-        <v>149597.7421311061</v>
+        <v>214826.3921596935</v>
       </c>
       <c r="AF2" t="n">
         <v>2.053146797357775e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.398148148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>135320.3435839038</v>
+        <v>194323.662802769</v>
       </c>
     </row>
   </sheetData>
